--- a/hardware/gerberfiles/ETG Ordering Files/SwitchBoardRev1BOM.xlsx
+++ b/hardware/gerberfiles/ETG Ordering Files/SwitchBoardRev1BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parker\Desktop\SeniorDesign\sddec21-07\hardware\gerberfiles\ETG Ordering Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A90C975-F3F2-4335-9D6D-FCEB3999AC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623C69A8-E10F-40C8-8AE1-85B85CCD9491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{362D0179-1D36-4F9A-8AB1-3CB748E57F0C}"/>
   </bookViews>
@@ -171,7 +171,7 @@
     <t>http://www.onsemi.com/pub_link/Collateral/NCP1117-D.PDF</t>
   </si>
   <si>
-    <t>488-NCP1117IST33T3GCT-ND</t>
+    <t>NCP1117ST33T3GOSCT-ND</t>
   </si>
 </sst>
 </file>
@@ -523,15 +523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5CF021-6AE4-40C1-9373-CD0D85BA889B}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,8 +550,12 @@
       <c r="F1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <f>F1*2+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -570,8 +574,12 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f t="shared" ref="G2:G13" si="0">F2*2+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -590,8 +598,12 @@
       <c r="F3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -610,8 +622,12 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -630,8 +646,12 @@
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -650,8 +670,12 @@
       <c r="F6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -667,8 +691,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -687,8 +715,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -707,8 +739,12 @@
       <c r="F9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -724,8 +760,12 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -741,8 +781,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -758,8 +802,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -777,6 +825,10 @@
       </c>
       <c r="F13">
         <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/gerberfiles/ETG Ordering Files/SwitchBoardRev1BOM.xlsx
+++ b/hardware/gerberfiles/ETG Ordering Files/SwitchBoardRev1BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parker\Desktop\SeniorDesign\sddec21-07\hardware\gerberfiles\ETG Ordering Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623C69A8-E10F-40C8-8AE1-85B85CCD9491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0C95F0-E8A5-489C-8979-05D2CEF1B70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{362D0179-1D36-4F9A-8AB1-3CB748E57F0C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>&gt;  C1, C2, C4</t>
   </si>
@@ -172,6 +172,24 @@
   </si>
   <si>
     <t>NCP1117ST33T3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Footpring</t>
+  </si>
+  <si>
+    <t>Digikey Part number</t>
+  </si>
+  <si>
+    <t>Quantity per board</t>
+  </si>
+  <si>
+    <t>Total Quantity</t>
   </si>
 </sst>
 </file>
@@ -523,44 +541,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5CF021-6AE4-40C1-9373-CD0D85BA889B}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <f>F1*2+1</f>
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -569,94 +589,94 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <f>F2*2+1</f>
         <v>7</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G13" si="0">F2*2+1</f>
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f t="shared" ref="G3:G14" si="0">F3*2+1</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -665,22 +685,22 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -688,20 +708,23 @@
       <c r="D7" t="s">
         <v>3</v>
       </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
       <c r="F7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -709,9 +732,6 @@
       <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
       <c r="F8">
         <v>1</v>
       </c>
@@ -722,61 +742,64 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -788,16 +811,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -809,24 +832,45 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
